--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD2DB52-58BA-4ED8-9FB0-3E8FDD68D18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413F4AE-F39B-47E7-A4B4-C1E678C69265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Cliente</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Licenza</t>
-  </si>
-  <si>
-    <t>Tipo_licenza↑</t>
   </si>
   <si>
     <t>Acquista</t>
@@ -294,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -333,6 +330,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,7 +652,7 @@
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -855,15 +855,12 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="3"/>
@@ -875,13 +872,13 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -893,10 +890,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>3</v>
@@ -905,13 +902,13 @@
         <v>4</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="1"/>
@@ -919,13 +916,13 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -937,13 +934,13 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
@@ -983,7 +980,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413F4AE-F39B-47E7-A4B4-C1E678C69265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40E3A0-93DF-447C-9004-84CE1F715A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Cliente</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Sistema operativo</t>
+  </si>
+  <si>
+    <t>Categoria</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -287,11 +290,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -314,15 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,6 +366,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE41B4-7FB5-4151-A98B-5F96D2858ABE}">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,11 +717,12 @@
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -684,11 +736,11 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -708,11 +760,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -728,11 +780,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -748,11 +800,11 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -761,22 +813,22 @@
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -792,11 +844,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -809,11 +861,11 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -827,11 +879,11 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -853,11 +905,11 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -870,11 +922,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -888,11 +940,11 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -914,11 +966,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -932,11 +984,11 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -945,10 +997,12 @@
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="1"/>
@@ -980,7 +1034,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40E3A0-93DF-447C-9004-84CE1F715A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A314FED-5A81-41AD-B5C7-BAD2E2229651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="110">
   <si>
     <t>Cliente</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Attestato</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Consegue</t>
   </si>
   <si>
@@ -187,10 +184,208 @@
     <t>Problema</t>
   </si>
   <si>
-    <t>Sistema operativo</t>
-  </si>
-  <si>
     <t>Categoria</t>
+  </si>
+  <si>
+    <t>Attributi</t>
+  </si>
+  <si>
+    <t>Dominio</t>
+  </si>
+  <si>
+    <t>Entità</t>
+  </si>
+  <si>
+    <t>Associazioni</t>
+  </si>
+  <si>
+    <t>Entità deboli</t>
+  </si>
+  <si>
+    <t>ℕ</t>
+  </si>
+  <si>
+    <t>Omesso</t>
+  </si>
+  <si>
+    <t>Partecipazioni esterne</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Segue,Consegue,Acquista, Fax_telefono, Problema, Privato, Azienda</t>
+  </si>
+  <si>
+    <t>Non presenti</t>
+  </si>
+  <si>
+    <t>{T,F,E}</t>
+  </si>
+  <si>
+    <t>Attributo che indica se il numero rappresentato è un telefono(T), fax(F) o entrambe le cose(E)</t>
+  </si>
+  <si>
+    <t>Consegue,Segue,Attestato</t>
+  </si>
+  <si>
+    <t>Breve descrizione del corso</t>
+  </si>
+  <si>
+    <t>Numero di esami necessari a conseguire l'attestato(se rilasciato) o a terminare il corso</t>
+  </si>
+  <si>
+    <t>Insieme delle possibili descrizioni</t>
+  </si>
+  <si>
+    <t>Insieme delle possibili date</t>
+  </si>
+  <si>
+    <t>Sistema_operativo</t>
+  </si>
+  <si>
+    <t>Acquista, Lavora_su, Sistema_Operativo,Problema</t>
+  </si>
+  <si>
+    <t>Tipologia di software</t>
+  </si>
+  <si>
+    <t>Insieme dei possibili prezzi secondo la valuta scelta</t>
+  </si>
+  <si>
+    <t>Insieme delle sottocategorie del software{Base, Gestionali, etc…</t>
+  </si>
+  <si>
+    <t>Settore di sviluppo del software</t>
+  </si>
+  <si>
+    <t>Insieme dei tipi di software{Freeware, Shareware, ect...</t>
+  </si>
+  <si>
+    <t>Descrizione delle caratterizzazioni del software</t>
+  </si>
+  <si>
+    <t>Insime delle possibili caratteristiche dei software</t>
+  </si>
+  <si>
+    <t>Tipo di licenza che utilizza il software</t>
+  </si>
+  <si>
+    <t>Insieme delle licenze software{Adware, Demo, Open Source, etc…</t>
+  </si>
+  <si>
+    <t>Insieme dei ruoli</t>
+  </si>
+  <si>
+    <t>Insieme dei possibili cognomi</t>
+  </si>
+  <si>
+    <t>Inseme dei possinili nomi</t>
+  </si>
+  <si>
+    <t>Insieme dei possibili codici fiscali</t>
+  </si>
+  <si>
+    <t>{Analista, Progettista, Sviluppatore}</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>Insieme dei possibili indirizzi(Via, numero civico, citta, cap)</t>
+  </si>
+  <si>
+    <t>char(14)</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
+    <t>varchar()</t>
+  </si>
+  <si>
+    <t>varchar(300)</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>char(16)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>char(13)</t>
+  </si>
+  <si>
+    <t>Numero di esami che il Cliente ha dato per lo specifico corso</t>
+  </si>
+  <si>
+    <t>Relazione tra Cliente e Corso, rappresenta per ogni cliente i corsi da egli seguiti</t>
+  </si>
+  <si>
+    <t>Relazione tra Personale e Software, rappresenta i Software su cui ogni addetto del personale sta attualmente lavorando</t>
+  </si>
+  <si>
+    <t>Relazione tra Cliente e Software, rappresenta i software acquistati da ogni cliente</t>
+  </si>
+  <si>
+    <t>Relazione tra Cliente e Attestato, rappresenta gli attestati ricevuti dai Clienti in seguito al completamento degli esami previsti per i Corso_formativi</t>
+  </si>
+  <si>
+    <t>FK e PK parziale</t>
+  </si>
+  <si>
+    <t>FK e PK</t>
+  </si>
+  <si>
+    <t>PK parziale</t>
+  </si>
+  <si>
+    <t>Nome del sistema operativo</t>
+  </si>
+  <si>
+    <t>Insieme dei nomi di sistemi operativi</t>
+  </si>
+  <si>
+    <t>Data_rilascio</t>
+  </si>
+  <si>
+    <t>Data in cui è stato rilasciato l'attestato</t>
+  </si>
+  <si>
+    <t>Insime delle possibili date</t>
+  </si>
+  <si>
+    <t>Descrizione del problema fornita dal cliente che l'ha rilasciata</t>
+  </si>
+  <si>
+    <t>Insieme delle possibili partite iva</t>
+  </si>
+  <si>
+    <t>Insieme delle possibili ragioni sociali</t>
+  </si>
+  <si>
+    <t>Identificativo dell'azienda</t>
   </si>
 </sst>
 </file>
@@ -241,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -256,32 +451,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -313,6 +482,116 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -321,70 +600,114 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,371 +1023,1351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE41B4-7FB5-4151-A98B-5F96D2858ABE}">
-  <dimension ref="B1:K21"/>
+  <dimension ref="B1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="74.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="18"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="18"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="18"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="18"/>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="13"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="18"/>
+    </row>
+    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="13"/>
+      <c r="K35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="L35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="18"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="13"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="M36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="18"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="13"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="M37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="18"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="13"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="M38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="18"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J39" s="13"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="18"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J40" s="13"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="M40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="13"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="18"/>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="13"/>
+      <c r="K42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="L42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="18"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J43" s="13"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="M43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="18"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J44" s="13"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="M44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="18"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J45" s="13"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="3"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
+      <c r="M45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="18"/>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="15"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="19"/>
+    </row>
+    <row r="47" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K16:K17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A314FED-5A81-41AD-B5C7-BAD2E2229651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6EF2E3-AADE-45F8-B2E9-459AF9DC045B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
   <si>
     <t>Cliente</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Problema</t>
-  </si>
-  <si>
-    <t>Categoria</t>
   </si>
   <si>
     <t>Attributi</t>
@@ -691,14 +688,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,6 +700,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1023,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE41B4-7FB5-4151-A98B-5F96D2858ABE}">
-  <dimension ref="B1:Q47"/>
+  <dimension ref="B1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1034,7 @@
     <col min="7" max="7" width="63" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="74.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1050,7 +1045,7 @@
   <sheetData>
     <row r="1" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1060,7 +1055,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -1076,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -1085,18 +1080,18 @@
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>11</v>
@@ -1105,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="18"/>
@@ -1117,33 +1112,33 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="24" t="s">
-        <v>94</v>
+      <c r="K3" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="18"/>
@@ -1155,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="24"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="18"/>
@@ -1194,18 +1189,18 @@
       <c r="H5" s="5"/>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="24"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="18"/>
@@ -1216,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
@@ -1225,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
@@ -1247,24 +1242,24 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="23" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>11</v>
@@ -1273,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="18"/>
@@ -1285,33 +1280,33 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="24" t="s">
-        <v>97</v>
+      <c r="K8" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="18"/>
@@ -1323,31 +1318,31 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="18"/>
@@ -1376,7 +1371,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>11</v>
@@ -1385,18 +1380,18 @@
         <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>11</v>
@@ -1405,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="18"/>
@@ -1417,33 +1412,33 @@
         <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="24" t="s">
-        <v>96</v>
+      <c r="K12" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="18"/>
@@ -1455,31 +1450,31 @@
         <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="18"/>
@@ -1491,16 +1486,16 @@
         <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
@@ -1519,24 +1514,24 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>11</v>
@@ -1545,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="18"/>
@@ -1557,33 +1552,33 @@
         <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="24" t="s">
-        <v>95</v>
+      <c r="K16" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="18"/>
@@ -1598,18 +1593,18 @@
       <c r="H17" s="5"/>
       <c r="I17" s="14"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="18"/>
@@ -1620,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>11</v>
@@ -1629,10 +1624,10 @@
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
@@ -1651,20 +1646,20 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -1681,24 +1676,24 @@
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="13"/>
       <c r="K20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -1707,7 +1702,7 @@
         <v>17</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="18"/>
@@ -1719,31 +1714,31 @@
         <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="26"/>
+      <c r="K21" s="24"/>
       <c r="L21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="18"/>
@@ -1755,31 +1750,31 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="27"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="18"/>
@@ -1791,16 +1786,16 @@
         <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="13"/>
@@ -1819,16 +1814,16 @@
         <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="13"/>
@@ -1836,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>11</v>
@@ -1845,7 +1840,7 @@
         <v>17</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="18"/>
@@ -1862,16 +1857,16 @@
       <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="L25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="18"/>
@@ -1882,7 +1877,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>11</v>
@@ -1891,10 +1886,10 @@
         <v>17</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="13"/>
@@ -1903,13 +1898,13 @@
         <v>22</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="18"/>
@@ -1921,13 +1916,13 @@
         <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>40</v>
@@ -1949,16 +1944,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="13"/>
@@ -1966,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>11</v>
@@ -1975,7 +1970,7 @@
         <v>17</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="18"/>
@@ -1987,16 +1982,16 @@
         <v>4</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="13"/>
@@ -2005,13 +2000,13 @@
         <v>10</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="18"/>
@@ -2023,16 +2018,16 @@
         <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="13"/>
@@ -2041,13 +2036,13 @@
         <v>33</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="18"/>
@@ -2059,16 +2054,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="13"/>
@@ -2077,13 +2072,13 @@
         <v>17</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="18"/>
@@ -2095,28 +2090,32 @@
         <v>39</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="13"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="3" t="s">
-        <v>42</v>
+      <c r="L32" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="18"/>
     </row>
@@ -2131,47 +2130,47 @@
       <c r="I33" s="16"/>
       <c r="J33" s="13"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J34" s="13"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="K34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="18"/>
     </row>
-    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J35" s="13"/>
-      <c r="K35" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>43</v>
+      <c r="K35" s="5"/>
+      <c r="L35" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="18"/>
@@ -2180,16 +2179,16 @@
       <c r="J36" s="13"/>
       <c r="K36" s="5"/>
       <c r="L36" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="18"/>
@@ -2198,13 +2197,13 @@
       <c r="J37" s="13"/>
       <c r="K37" s="5"/>
       <c r="L37" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>74</v>
@@ -2216,16 +2215,16 @@
       <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="L38" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="18"/>
@@ -2233,65 +2232,65 @@
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J39" s="13"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="3" t="s">
-        <v>36</v>
+      <c r="L39" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="18"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J40" s="13"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="18"/>
     </row>
     <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J41" s="13"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
+      <c r="K41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J42" s="13"/>
-      <c r="K42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>43</v>
+      <c r="K42" s="5"/>
+      <c r="L42" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="18"/>
@@ -2300,13 +2299,13 @@
       <c r="J43" s="13"/>
       <c r="K43" s="5"/>
       <c r="L43" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>107</v>
@@ -2317,50 +2316,41 @@
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J44" s="13"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="3" t="s">
-        <v>7</v>
+      <c r="L44" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J45" s="13"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="18"/>
-    </row>
-    <row r="46" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J46" s="15"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="19"/>
-    </row>
-    <row r="47" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="19"/>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K3:K5"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6EF2E3-AADE-45F8-B2E9-459AF9DC045B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C7DA27-DBE2-43C2-A72C-2F3B01606F70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
   <si>
     <t>Cliente</t>
   </si>
@@ -304,12 +302,6 @@
     <t>char(1)</t>
   </si>
   <si>
-    <t>varchar()</t>
-  </si>
-  <si>
-    <t>varchar(300)</t>
-  </si>
-  <si>
     <t>tinyint</t>
   </si>
   <si>
@@ -383,6 +375,18 @@
   </si>
   <si>
     <t>Identificativo dell'azienda</t>
+  </si>
+  <si>
+    <t>tinytext(300)</t>
+  </si>
+  <si>
+    <t>int(5) unsigned</t>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+  </si>
+  <si>
+    <t>tinytext(100)</t>
   </si>
 </sst>
 </file>
@@ -700,10 +704,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1020,30 +1024,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE41B4-7FB5-4151-A98B-5F96D2858ABE}">
   <dimension ref="B1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K9"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="74.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="74.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
@@ -1065,7 +1069,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="17"/>
     </row>
-    <row r="2" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -1105,14 +1109,14 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>50</v>
@@ -1125,17 +1129,17 @@
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="26" t="s">
-        <v>93</v>
+      <c r="K3" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>47</v>
@@ -1143,7 +1147,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
@@ -1163,15 +1167,15 @@
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="26"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>47</v>
@@ -1179,7 +1183,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1189,15 +1193,15 @@
       <c r="H5" s="5"/>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="26"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>47</v>
@@ -1205,7 +1209,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
@@ -1235,14 +1239,14 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>51</v>
@@ -1273,7 +1277,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
@@ -1293,17 +1297,17 @@
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="26" t="s">
-        <v>96</v>
+      <c r="K8" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>47</v>
@@ -1311,7 +1315,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
@@ -1331,15 +1335,15 @@
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="26"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>47</v>
@@ -1347,7 +1351,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1365,7 +1369,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -1405,14 +1409,14 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>77</v>
+      <c r="E12" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>50</v>
@@ -1425,17 +1429,17 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="26" t="s">
-        <v>95</v>
+      <c r="K12" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>47</v>
@@ -1443,14 +1447,14 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>57</v>
@@ -1463,15 +1467,15 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="26"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>47</v>
@@ -1479,14 +1483,14 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="18"/>
     </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>48</v>
@@ -1507,14 +1511,14 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>48</v>
@@ -1545,14 +1549,14 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>58</v>
@@ -1565,17 +1569,17 @@
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="26" t="s">
-        <v>94</v>
+      <c r="K16" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>47</v>
@@ -1583,7 +1587,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1593,15 +1597,15 @@
       <c r="H17" s="5"/>
       <c r="I17" s="14"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="26"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>47</v>
@@ -1609,7 +1613,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
         <v>26</v>
@@ -1639,14 +1643,14 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>77</v>
+      <c r="E19" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>50</v>
@@ -1669,14 +1673,14 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13"/>
       <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>63</v>
@@ -1707,14 +1711,14 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>48</v>
@@ -1732,10 +1736,10 @@
         <v>33</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>47</v>
@@ -1743,14 +1747,14 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>66</v>
@@ -1768,25 +1772,25 @@
         <v>34</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="18"/>
     </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="13"/>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>68</v>
@@ -1807,14 +1811,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="18"/>
     </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="13"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>70</v>
@@ -1845,7 +1849,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="18"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1857,21 +1861,21 @@
       <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="L25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="13"/>
       <c r="C26" s="7" t="s">
         <v>35</v>
@@ -1901,7 +1905,7 @@
         <v>77</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>47</v>
@@ -1909,14 +1913,14 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="5"/>
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>77</v>
+      <c r="E27" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>50</v>
@@ -1937,14 +1941,14 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="5"/>
       <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>48</v>
@@ -1975,14 +1979,14 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="5"/>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>48</v>
@@ -2003,7 +2007,7 @@
         <v>77</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>47</v>
@@ -2011,14 +2015,14 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="18"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>48</v>
@@ -2039,7 +2043,7 @@
         <v>77</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>47</v>
@@ -2047,14 +2051,14 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="5"/>
       <c r="D31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>48</v>
@@ -2072,10 +2076,10 @@
         <v>17</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>59</v>
@@ -2083,14 +2087,14 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="18"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="5"/>
       <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>72</v>
@@ -2119,7 +2123,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="18"/>
     </row>
-    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -2137,7 +2141,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="18"/>
     </row>
-    <row r="34" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J34" s="13"/>
       <c r="K34" s="7" t="s">
         <v>1</v>
@@ -2157,14 +2161,14 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="18"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J35" s="13"/>
       <c r="K35" s="5"/>
       <c r="L35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>48</v>
@@ -2175,14 +2179,14 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="18"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J36" s="13"/>
       <c r="K36" s="5"/>
       <c r="L36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>48</v>
@@ -2193,14 +2197,14 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="18"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J37" s="13"/>
       <c r="K37" s="5"/>
       <c r="L37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>48</v>
@@ -2211,14 +2215,14 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="18"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="L38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>48</v>
@@ -2229,7 +2233,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="18"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J39" s="13"/>
       <c r="K39" s="5"/>
       <c r="L39" s="1" t="s">
@@ -2239,7 +2243,7 @@
         <v>77</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>47</v>
@@ -2247,7 +2251,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="18"/>
     </row>
-    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J40" s="13"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -2257,7 +2261,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="18"/>
     </row>
-    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J41" s="13"/>
       <c r="K41" s="7" t="s">
         <v>5</v>
@@ -2277,43 +2281,43 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J42" s="13"/>
       <c r="K42" s="5"/>
       <c r="L42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>48</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="18"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J43" s="13"/>
       <c r="K43" s="5"/>
       <c r="L43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P43" s="21"/>
       <c r="Q43" s="18"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J44" s="13"/>
       <c r="K44" s="5"/>
       <c r="L44" s="1" t="s">
@@ -2323,7 +2327,7 @@
         <v>77</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>47</v>
@@ -2331,7 +2335,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J45" s="15"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
@@ -2341,7 +2345,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="19"/>
     </row>
-    <row r="46" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -2349,7 +2353,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="27"/>
+      <c r="Q46" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2359,6 +2363,6 @@
     <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C7DA27-DBE2-43C2-A72C-2F3B01606F70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3CB54D-F27B-4839-B635-812BE6B1E570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
   <si>
     <t>Cliente</t>
   </si>
@@ -287,9 +287,6 @@
     <t>{Analista, Progettista, Sviluppatore}</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>varchar(100)</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>varchar(15)</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>varchar(30)</t>
   </si>
   <si>
@@ -377,16 +371,16 @@
     <t>Identificativo dell'azienda</t>
   </si>
   <si>
-    <t>tinytext(300)</t>
-  </si>
-  <si>
     <t>int(5) unsigned</t>
   </si>
   <si>
     <t>varchar(13)</t>
   </si>
   <si>
-    <t>tinytext(100)</t>
+    <t>float</t>
+  </si>
+  <si>
+    <t>tinytext</t>
   </si>
 </sst>
 </file>
@@ -633,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,9 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,32 +1013,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE41B4-7FB5-4151-A98B-5F96D2858ABE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="L24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="74.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="74.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
@@ -1069,7 +1063,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="17"/>
     </row>
-    <row r="2" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -1091,7 +1085,7 @@
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1109,14 +1103,14 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>50</v>
@@ -1129,17 +1123,17 @@
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="27" t="s">
-        <v>91</v>
+      <c r="K3" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>47</v>
@@ -1147,35 +1141,35 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="27"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>47</v>
@@ -1183,7 +1177,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1193,15 +1187,15 @@
       <c r="H5" s="5"/>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="27"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>47</v>
@@ -1209,7 +1203,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
@@ -1239,14 +1233,14 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>51</v>
@@ -1259,7 +1253,7 @@
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1277,14 +1271,14 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>50</v>
@@ -1297,17 +1291,17 @@
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="27" t="s">
-        <v>94</v>
+      <c r="K8" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>47</v>
@@ -1315,14 +1309,14 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>55</v>
@@ -1335,15 +1329,15 @@
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="27"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>47</v>
@@ -1351,7 +1345,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1369,7 +1363,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -1391,7 +1385,7 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1409,14 +1403,14 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>50</v>
@@ -1429,17 +1423,17 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="27" t="s">
-        <v>93</v>
+      <c r="K12" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>47</v>
@@ -1447,14 +1441,14 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>57</v>
@@ -1467,15 +1461,15 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>47</v>
@@ -1483,14 +1477,14 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="18"/>
     </row>
-    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>48</v>
@@ -1511,14 +1505,14 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>48</v>
@@ -1531,7 +1525,7 @@
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="21" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -1549,14 +1543,14 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>58</v>
@@ -1569,17 +1563,17 @@
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="27" t="s">
-        <v>92</v>
+      <c r="K16" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>47</v>
@@ -1587,7 +1581,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1597,15 +1591,15 @@
       <c r="H17" s="5"/>
       <c r="I17" s="14"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="27"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>47</v>
@@ -1613,7 +1607,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
         <v>26</v>
@@ -1643,14 +1637,14 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>50</v>
@@ -1673,14 +1667,14 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>63</v>
@@ -1711,14 +1705,14 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>48</v>
@@ -1731,15 +1725,15 @@
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>47</v>
@@ -1747,14 +1741,14 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>66</v>
@@ -1767,30 +1761,30 @@
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="25"/>
+      <c r="K22" s="24"/>
       <c r="L22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="18"/>
     </row>
-    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>68</v>
@@ -1811,14 +1805,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="18"/>
     </row>
-    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>70</v>
@@ -1849,7 +1843,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="18"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1861,21 +1855,21 @@
       <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="L25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" s="7" t="s">
         <v>35</v>
@@ -1902,10 +1896,10 @@
         <v>22</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>47</v>
@@ -1913,14 +1907,14 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="5"/>
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>50</v>
@@ -1941,14 +1935,14 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="5"/>
       <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>48</v>
@@ -1979,14 +1973,14 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="5"/>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>48</v>
@@ -2003,11 +1997,11 @@
       <c r="L29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="20" t="s">
-        <v>77</v>
+      <c r="M29" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>47</v>
@@ -2015,14 +2009,14 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="18"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>48</v>
@@ -2039,11 +2033,11 @@
       <c r="L30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="20" t="s">
-        <v>77</v>
+      <c r="M30" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>47</v>
@@ -2051,14 +2045,14 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="5"/>
       <c r="D31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>48</v>
@@ -2076,10 +2070,10 @@
         <v>17</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>59</v>
@@ -2087,14 +2081,14 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="18"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="5"/>
       <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>72</v>
@@ -2112,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>51</v>
@@ -2123,7 +2117,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="18"/>
     </row>
-    <row r="33" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -2135,13 +2129,13 @@
       <c r="J33" s="13"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="21"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="18"/>
     </row>
-    <row r="34" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J34" s="13"/>
       <c r="K34" s="7" t="s">
         <v>1</v>
@@ -2161,14 +2155,14 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="18"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J35" s="13"/>
       <c r="K35" s="5"/>
       <c r="L35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>48</v>
@@ -2179,14 +2173,14 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="18"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J36" s="13"/>
       <c r="K36" s="5"/>
       <c r="L36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>48</v>
@@ -2197,14 +2191,14 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="18"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J37" s="13"/>
       <c r="K37" s="5"/>
       <c r="L37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>48</v>
@@ -2215,14 +2209,14 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="18"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="L38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>48</v>
@@ -2233,17 +2227,17 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="18"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J39" s="13"/>
       <c r="K39" s="5"/>
       <c r="L39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>47</v>
@@ -2251,17 +2245,17 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="18"/>
     </row>
-    <row r="40" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J40" s="13"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="21"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="18"/>
     </row>
-    <row r="41" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J41" s="13"/>
       <c r="K41" s="7" t="s">
         <v>5</v>
@@ -2281,53 +2275,53 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J42" s="13"/>
       <c r="K42" s="5"/>
       <c r="L42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>48</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="18"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J43" s="13"/>
       <c r="K43" s="5"/>
       <c r="L43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P43" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="P43" s="20"/>
       <c r="Q43" s="18"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J44" s="13"/>
       <c r="K44" s="5"/>
       <c r="L44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>47</v>
@@ -2335,7 +2329,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J45" s="15"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
@@ -2345,15 +2339,15 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="19"/>
     </row>
-    <row r="46" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="21"/>
+      <c r="M46" s="20"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="26"/>
+      <c r="Q46" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2362,7 +2356,7 @@
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="K16:K17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3CB54D-F27B-4839-B635-812BE6B1E570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AA9E5F-C9CD-4001-A63A-513084F66B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
   <si>
     <t>Cliente</t>
   </si>
@@ -104,9 +104,6 @@
     </r>
   </si>
   <si>
-    <t>CodiceC.F</t>
-  </si>
-  <si>
     <t>Descrizione</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Segue</t>
   </si>
   <si>
-    <t>CodiceC.F↑</t>
-  </si>
-  <si>
     <t>Numero_esami_dati</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Prezzo</t>
   </si>
   <si>
-    <t>Settore</t>
-  </si>
-  <si>
     <t>Caratteristica</t>
   </si>
   <si>
@@ -248,18 +239,6 @@
     <t>Tipologia di software</t>
   </si>
   <si>
-    <t>Insieme dei possibili prezzi secondo la valuta scelta</t>
-  </si>
-  <si>
-    <t>Insieme delle sottocategorie del software{Base, Gestionali, etc…</t>
-  </si>
-  <si>
-    <t>Settore di sviluppo del software</t>
-  </si>
-  <si>
-    <t>Insieme dei tipi di software{Freeware, Shareware, ect...</t>
-  </si>
-  <si>
     <t>Descrizione delle caratterizzazioni del software</t>
   </si>
   <si>
@@ -381,6 +360,36 @@
   </si>
   <si>
     <t>tinytext</t>
+  </si>
+  <si>
+    <t>Insieme dei tipi di software{Software base, Firmware, Driver, Software applicativo}</t>
+  </si>
+  <si>
+    <t>Insieme dei possibili prezzi</t>
+  </si>
+  <si>
+    <t>Nome associato al software</t>
+  </si>
+  <si>
+    <t>Insieme dei possibili nomi di software</t>
+  </si>
+  <si>
+    <t>Versione</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
+    <t>Ultima versione del software rilasciata</t>
+  </si>
+  <si>
+    <t>Insieme delle terne di numeri (numero.numero.numero) che rappresenta l'ultima versione rilasciata</t>
+  </si>
+  <si>
+    <t>CodiceCF</t>
+  </si>
+  <si>
+    <t>CodiceCF↑</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -623,11 +632,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,6 +718,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,10 +1042,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:Q45"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1055,7 @@
     <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1043,7 +1069,7 @@
   <sheetData>
     <row r="1" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1053,7 +1079,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -1069,36 +1095,36 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="13"/>
       <c r="K2" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="18"/>
@@ -1110,33 +1136,33 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
       <c r="K3" s="26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="18"/>
@@ -1148,31 +1174,31 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
       <c r="K4" s="26"/>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="18"/>
@@ -1189,16 +1215,16 @@
       <c r="J5" s="13"/>
       <c r="K5" s="26"/>
       <c r="L5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="18"/>
@@ -1209,19 +1235,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
@@ -1240,33 +1266,33 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
       <c r="K7" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="18"/>
@@ -1277,34 +1303,34 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>79</v>
+      <c r="E8" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
       <c r="K8" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="18"/>
@@ -1316,31 +1342,31 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
       <c r="K9" s="26"/>
       <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="18"/>
@@ -1369,36 +1395,36 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
       <c r="K11" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="18"/>
@@ -1407,36 +1433,36 @@
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
       <c r="K12" s="26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="18"/>
@@ -1445,19 +1471,19 @@
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
@@ -1466,13 +1492,13 @@
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="18"/>
@@ -1481,19 +1507,19 @@
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
@@ -1509,36 +1535,36 @@
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13"/>
       <c r="K15" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="18"/>
@@ -1547,41 +1573,41 @@
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
       <c r="K16" s="26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1593,39 +1619,39 @@
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
@@ -1637,27 +1663,27 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -1667,133 +1693,131 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>82</v>
+    <row r="20" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="5"/>
+        <v>50</v>
+      </c>
       <c r="J20" s="13"/>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="13"/>
       <c r="K21" s="23"/>
       <c r="L21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="13"/>
       <c r="K22" s="24"/>
       <c r="L22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="18"/>
     </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="13"/>
@@ -1805,125 +1829,118 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="18"/>
     </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="13"/>
       <c r="K24" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="18"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="D25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="L25" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="5"/>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
       <c r="J26" s="13"/>
       <c r="K26" s="5"/>
       <c r="L26" s="1" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>50</v>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="13"/>
@@ -1935,61 +1952,61 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>48</v>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="13"/>
       <c r="K28" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="5"/>
       <c r="D29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="13"/>
@@ -1998,106 +2015,106 @@
         <v>10</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="18"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="13"/>
       <c r="K30" s="5"/>
       <c r="L30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="5"/>
       <c r="D31" s="3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="13"/>
       <c r="K31" s="5"/>
       <c r="L31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="18"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="5"/>
       <c r="D32" s="3" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="13"/>
@@ -2106,27 +2123,37 @@
         <v>14</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="20"/>
@@ -2135,40 +2162,48 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="18"/>
     </row>
-    <row r="34" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="13"/>
       <c r="K34" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="18"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J35" s="13"/>
       <c r="K35" s="5"/>
       <c r="L35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="18"/>
@@ -2180,13 +2215,13 @@
         <v>3</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="18"/>
@@ -2198,13 +2233,13 @@
         <v>4</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="18"/>
@@ -2213,16 +2248,16 @@
       <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="L38" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="18"/>
@@ -2234,13 +2269,13 @@
         <v>15</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="18"/>
@@ -2261,16 +2296,16 @@
         <v>5</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="18"/>
@@ -2282,13 +2317,13 @@
         <v>6</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="18"/>
@@ -2300,13 +2335,13 @@
         <v>7</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P43" s="20"/>
       <c r="Q43" s="18"/>
@@ -2318,13 +2353,13 @@
         <v>15</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="18"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AA9E5F-C9CD-4001-A63A-513084F66B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F42854B-E5D2-44AF-A3DC-BD14855F1B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
   <si>
     <t>Cliente</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Attestato</t>
   </si>
   <si>
-    <t>Consegue</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>Relazione tra Cliente e Software, rappresenta i software acquistati da ogni cliente</t>
   </si>
   <si>
-    <t>Relazione tra Cliente e Attestato, rappresenta gli attestati ricevuti dai Clienti in seguito al completamento degli esami previsti per i Corso_formativi</t>
-  </si>
-  <si>
     <t>FK e PK parziale</t>
   </si>
   <si>
@@ -390,6 +384,21 @@
   </si>
   <si>
     <t>CodiceCF↑</t>
+  </si>
+  <si>
+    <t>CodiceC↑</t>
+  </si>
+  <si>
+    <t>Insieme dei CodiciC appartenenti a Cliente</t>
+  </si>
+  <si>
+    <t>Insieme dei CodiciCF appartenenti ai Corsi_Formativi</t>
+  </si>
+  <si>
+    <t>Insieme dei CodiciS appartenenti a Software</t>
+  </si>
+  <si>
+    <t>Insieme dei CodiciP appartenenti a Personale</t>
   </si>
 </sst>
 </file>
@@ -609,30 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -643,11 +628,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,16 +706,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,8 +723,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,8 +1056,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,13 +1075,13 @@
     <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1079,7 +1091,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -1087,7 +1099,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="17"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
@@ -1095,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -1104,18 +1116,18 @@
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>39</v>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>11</v>
@@ -1124,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
@@ -1136,36 +1148,36 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="26" t="s">
-        <v>82</v>
+      <c r="K3" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="P3" s="5"/>
-      <c r="Q3" s="18"/>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
@@ -1174,34 +1186,34 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="26"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
@@ -1213,21 +1225,21 @@
       <c r="H5" s="5"/>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="26"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
@@ -1235,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
@@ -1244,10 +1256,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
@@ -1257,33 +1269,33 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="22" t="s">
-        <v>23</v>
+      <c r="K7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>11</v>
@@ -1292,48 +1304,48 @@
         <v>16</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="5"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="26" t="s">
-        <v>85</v>
+      <c r="K8" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
@@ -1342,34 +1354,34 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="26"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
@@ -1387,7 +1399,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
@@ -1395,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>11</v>
@@ -1404,18 +1416,18 @@
         <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>39</v>
+      <c r="K11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>11</v>
@@ -1424,48 +1436,48 @@
         <v>16</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="5"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="27"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="27"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
@@ -1474,34 +1486,34 @@
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="26"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="P13" s="5"/>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
@@ -1510,102 +1522,89 @@
         <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="18"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="27"/>
+    </row>
+    <row r="15" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="18"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="27"/>
+    </row>
+    <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>98</v>
+      <c r="K16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P16" s="5"/>
-      <c r="Q16" s="18"/>
+      <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
@@ -1617,29 +1616,29 @@
       <c r="H17" s="5"/>
       <c r="I17" s="14"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="26"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="P17" s="5"/>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>11</v>
@@ -1648,74 +1647,80 @@
         <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="13"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="27"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="17"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -1724,10 +1729,10 @@
         <v>16</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" s="5"/>
-      <c r="Q20" s="18"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
@@ -1736,199 +1741,197 @@
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>98</v>
+      <c r="K21" s="5"/>
+      <c r="L21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="P21" s="5"/>
-      <c r="Q21" s="18"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="P22" s="5"/>
-      <c r="Q22" s="18"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="27"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="L23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="27"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="5"/>
       <c r="D25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="L25" s="3" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="P25" s="5"/>
-      <c r="Q25" s="18"/>
+      <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="J26" s="13"/>
+      <c r="A26" s="17"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="1" t="s">
-        <v>111</v>
+      <c r="L26" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P26" s="5"/>
-      <c r="Q26" s="18"/>
+      <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>11</v>
@@ -1937,58 +1940,64 @@
         <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="L27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="P27" s="5"/>
-      <c r="Q27" s="18"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q27" s="27"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P28" s="5"/>
-      <c r="Q28" s="18"/>
+      <c r="Q28" s="27"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
@@ -1997,106 +2006,100 @@
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="9" t="s">
-        <v>10</v>
+      <c r="L29" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="P29" s="5"/>
-      <c r="Q29" s="18"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="27"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q30" s="27"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="5"/>
       <c r="D31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="O31" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P31" s="5"/>
-      <c r="Q31" s="18"/>
+      <c r="Q31" s="27"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
@@ -2105,62 +2108,70 @@
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="4" t="s">
-        <v>14</v>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="P32" s="5"/>
-      <c r="Q32" s="18"/>
-    </row>
-    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q32" s="27"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="28"/>
+        <v>49</v>
+      </c>
+      <c r="I33" s="24"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="P33" s="5"/>
-      <c r="Q33" s="18"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
@@ -2170,226 +2181,169 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>39</v>
+      <c r="I34" s="23"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P34" s="5"/>
-      <c r="Q34" s="18"/>
+      <c r="Q34" s="27"/>
     </row>
     <row r="35" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J35" s="13"/>
       <c r="K35" s="5"/>
       <c r="L35" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P35" s="5"/>
-      <c r="Q35" s="18"/>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J36" s="13"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="3" t="s">
-        <v>3</v>
+      <c r="L36" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="P36" s="5"/>
-      <c r="Q36" s="18"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="27"/>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J37" s="13"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="27"/>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J38" s="13"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="3" t="s">
-        <v>33</v>
+      <c r="K38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="P38" s="5"/>
-      <c r="Q38" s="18"/>
+      <c r="Q38" s="27"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J39" s="13"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="1" t="s">
-        <v>15</v>
+      <c r="L39" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="P39" s="5"/>
-      <c r="Q39" s="18"/>
-    </row>
-    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q39" s="27"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J40" s="13"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="18"/>
-    </row>
-    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="27"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J41" s="13"/>
-      <c r="K41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>39</v>
+      <c r="K41" s="5"/>
+      <c r="L41" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="P41" s="5"/>
-      <c r="Q41" s="18"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J42" s="13"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="18"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J43" s="13"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="18"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J44" s="13"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="18"/>
-    </row>
-    <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J45" s="15"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="19"/>
-    </row>
-    <row r="46" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="27"/>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="15"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="27"/>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="20"/>
+      <c r="M46" s="18"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="25"/>
+      <c r="Q46" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="K3:K5"/>
-    <mergeCell ref="K8:K9"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F42854B-E5D2-44AF-A3DC-BD14855F1B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC0CA8D-9AB4-4764-B24A-CE1B92A5F920}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="114">
   <si>
     <t>Cliente</t>
   </si>
@@ -149,18 +149,9 @@
     <t>Sistema</t>
   </si>
   <si>
-    <t>Personale</t>
-  </si>
-  <si>
     <t>Data_nascita</t>
   </si>
   <si>
-    <t>CodiceP</t>
-  </si>
-  <si>
-    <t>CodiceP↑</t>
-  </si>
-  <si>
     <t>Ruolo</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>Sistema_operativo</t>
   </si>
   <si>
-    <t>Acquista, Lavora_su, Sistema_Operativo,Problema</t>
-  </si>
-  <si>
     <t>Tipologia di software</t>
   </si>
   <si>
@@ -260,9 +248,6 @@
     <t>Insieme dei possibili codici fiscali</t>
   </si>
   <si>
-    <t>{Analista, Progettista, Sviluppatore}</t>
-  </si>
-  <si>
     <t>varchar(100)</t>
   </si>
   <si>
@@ -302,9 +287,6 @@
     <t>Relazione tra Cliente e Corso, rappresenta per ogni cliente i corsi da egli seguiti</t>
   </si>
   <si>
-    <t>Relazione tra Personale e Software, rappresenta i Software su cui ogni addetto del personale sta attualmente lavorando</t>
-  </si>
-  <si>
     <t>Relazione tra Cliente e Software, rappresenta i software acquistati da ogni cliente</t>
   </si>
   <si>
@@ -329,9 +311,6 @@
     <t>Data in cui è stato rilasciato l'attestato</t>
   </si>
   <si>
-    <t>Insime delle possibili date</t>
-  </si>
-  <si>
     <t>Descrizione del problema fornita dal cliente che l'ha rilasciata</t>
   </si>
   <si>
@@ -398,7 +377,36 @@
     <t>Insieme dei CodiciS appartenenti a Software</t>
   </si>
   <si>
-    <t>Insieme dei CodiciP appartenenti a Personale</t>
+    <t>Inseme dei possibili nomi</t>
+  </si>
+  <si>
+    <t>Operatore</t>
+  </si>
+  <si>
+    <t>CodiceO</t>
+  </si>
+  <si>
+    <t>{Tecnico,Commerciale}</t>
+  </si>
+  <si>
+    <t>Acquista, Sistema_Operativo,Problema</t>
+  </si>
+  <si>
+    <r>
+      <t>CodiceO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↑</t>
+    </r>
+  </si>
+  <si>
+    <t>Insieme dei CodiciO appartenenti a Operatore</t>
   </si>
 </sst>
 </file>
@@ -656,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,6 +744,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,32 +1067,32 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="74.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="74.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="52.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1091,7 +1102,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -1101,13 +1112,13 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="26"/>
     </row>
-    <row r="2" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -1116,10 +1127,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="13"/>
@@ -1127,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>11</v>
@@ -1136,86 +1147,86 @@
         <v>16</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="27"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
       <c r="K3" s="28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="27"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
       <c r="K4" s="29"/>
       <c r="L4" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="27"/>
     </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1230,24 +1241,24 @@
         <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="27"/>
     </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
@@ -1256,10 +1267,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
@@ -1271,23 +1282,23 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="27"/>
     </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
@@ -1295,7 +1306,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>11</v>
@@ -1304,66 +1315,66 @@
         <v>16</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
       <c r="K8" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="27"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
@@ -1372,18 +1383,18 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1401,13 +1412,13 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="27"/>
     </row>
-    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>11</v>
@@ -1416,183 +1427,186 @@
         <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="5"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="27"/>
     </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>96</v>
+      <c r="K12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="27"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="29"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="27"/>
     </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="27"/>
     </row>
-    <row r="15" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I15" s="14"/>
-      <c r="J15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="27"/>
     </row>
-    <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>11</v>
@@ -1601,12 +1615,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="27"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1616,29 +1630,29 @@
       <c r="H17" s="5"/>
       <c r="I17" s="14"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>96</v>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="27"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>11</v>
@@ -1647,291 +1661,295 @@
         <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="27"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="L19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="Q19" s="27"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="27"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="L21" s="3" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="27"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="1" t="s">
-        <v>109</v>
+      <c r="L22" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="27"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I23" s="14"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="1" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P23" s="5"/>
       <c r="Q23" s="27"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="L24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="27"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="5"/>
       <c r="D25" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>11</v>
+      <c r="K25" s="5"/>
+      <c r="L25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="27"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="9" t="s">
-        <v>10</v>
+      <c r="L26" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="5"/>
+        <v>113</v>
+      </c>
       <c r="Q26" s="27"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>11</v>
@@ -1940,240 +1958,240 @@
         <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="3" t="s">
+      <c r="K28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="O28" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="27"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="5"/>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="4" t="s">
-        <v>14</v>
+      <c r="L29" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="27"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="L30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="5"/>
       <c r="D31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>38</v>
+      <c r="K31" s="5"/>
+      <c r="L31" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="27"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="5"/>
       <c r="D32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I32" s="14"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="5"/>
       <c r="L32" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="27"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I33" s="24"/>
-      <c r="J33" s="5"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="27"/>
     </row>
-    <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -2182,155 +2200,109 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="27"/>
     </row>
-    <row r="35" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J35" s="13"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="3" t="s">
-        <v>32</v>
+      <c r="K35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J36" s="13"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="1" t="s">
-        <v>15</v>
+      <c r="L36" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="27"/>
     </row>
-    <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J37" s="13"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
+      <c r="L37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" s="18"/>
       <c r="Q37" s="27"/>
     </row>
-    <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J38" s="13"/>
-      <c r="K38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>38</v>
+      <c r="K38" s="5"/>
+      <c r="L38" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="27"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J39" s="13"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="27"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J40" s="13"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="27"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="13"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="27"/>
-    </row>
-    <row r="42" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J42" s="15"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="27"/>
-    </row>
-    <row r="43" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J39" s="15"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -2341,9 +2313,8 @@
       <c r="Q46" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="K3:K5"/>
-    <mergeCell ref="K12:K13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC0CA8D-9AB4-4764-B24A-CE1B92A5F920}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{CBC0CA8D-9AB4-4764-B24A-CE1B92A5F920}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{0311B0CE-0336-44FB-9CFF-A411810F740F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
   <si>
     <t>Cliente</t>
   </si>
@@ -407,6 +407,21 @@
   </si>
   <si>
     <t>Insieme dei CodiciO appartenenti a Operatore</t>
+  </si>
+  <si>
+    <t>int unsigned</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Informazione aggiuntiva sul problema, varrà 'true' nel caso il problema sia stato risolto 'false' altrimenti</t>
+  </si>
+  <si>
+    <t>{true, false}</t>
+  </si>
+  <si>
+    <t>Risolto</t>
   </si>
 </sst>
 </file>
@@ -457,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -660,11 +675,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,28 +753,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1092,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="L10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1110,7 @@
     <col min="11" max="11" width="74.44140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="87.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="52.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5546875" style="2" customWidth="1"/>
   </cols>
@@ -1110,7 +1135,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="26"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13"/>
@@ -1150,7 +1175,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="27"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -1159,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>43</v>
@@ -1172,14 +1197,14 @@
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="27" t="s">
         <v>76</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>78</v>
@@ -1188,7 +1213,7 @@
         <v>104</v>
       </c>
       <c r="P3" s="5"/>
-      <c r="Q3" s="27"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
@@ -1210,12 +1235,12 @@
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="29"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>78</v>
@@ -1224,7 +1249,7 @@
         <v>105</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="27"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13"/>
@@ -1236,12 +1261,12 @@
       <c r="H5" s="5"/>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="29"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>75</v>
@@ -1250,7 +1275,7 @@
         <v>40</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
@@ -1280,7 +1305,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
@@ -1289,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -1318,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="P7" s="5"/>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
@@ -1340,14 +1365,14 @@
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="29" t="s">
         <v>77</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>78</v>
@@ -1356,7 +1381,7 @@
         <v>106</v>
       </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
@@ -1378,12 +1403,12 @@
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>78</v>
@@ -1392,7 +1417,7 @@
         <v>104</v>
       </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="27"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -1410,7 +1435,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13"/>
@@ -1442,7 +1467,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="27"/>
+      <c r="Q11" s="25"/>
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13"/>
@@ -1451,7 +1476,7 @@
         <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>43</v>
@@ -1480,7 +1505,7 @@
         <v>36</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="27"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
@@ -1507,7 +1532,7 @@
         <v>29</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>79</v>
@@ -1516,7 +1541,7 @@
         <v>106</v>
       </c>
       <c r="P13" s="5"/>
-      <c r="Q13" s="27"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
@@ -1552,7 +1577,7 @@
         <v>82</v>
       </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="27"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13"/>
@@ -1580,7 +1605,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="27"/>
+      <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="13"/>
@@ -1618,7 +1643,7 @@
         <v>36</v>
       </c>
       <c r="P16" s="5"/>
-      <c r="Q16" s="27"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13"/>
@@ -1644,7 +1669,7 @@
         <v>53</v>
       </c>
       <c r="P17" s="5"/>
-      <c r="Q17" s="27"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13"/>
@@ -1673,7 +1698,7 @@
         <v>102</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>79</v>
@@ -1682,7 +1707,7 @@
         <v>105</v>
       </c>
       <c r="P18" s="5"/>
-      <c r="Q18" s="27"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
@@ -1691,7 +1716,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>43</v>
@@ -1702,12 +1727,12 @@
       <c r="H19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="23"/>
       <c r="L19" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>79</v>
@@ -1715,7 +1740,7 @@
       <c r="O19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q19" s="27"/>
+      <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
@@ -1734,7 +1759,7 @@
       <c r="H20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1742,7 +1767,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="27"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13"/>
@@ -1762,8 +1787,7 @@
       <c r="H21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="5"/>
+      <c r="I21" s="23"/>
       <c r="K21" s="8" t="s">
         <v>34</v>
       </c>
@@ -1779,8 +1803,7 @@
       <c r="O21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="27"/>
+      <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -1807,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>80</v>
@@ -1816,7 +1839,7 @@
         <v>40</v>
       </c>
       <c r="P22" s="5"/>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
@@ -1843,7 +1866,7 @@
         <v>29</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>78</v>
@@ -1852,7 +1875,7 @@
         <v>106</v>
       </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="27"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
@@ -1888,7 +1911,7 @@
         <v>52</v>
       </c>
       <c r="P24" s="5"/>
-      <c r="Q24" s="27"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
@@ -1911,26 +1934,27 @@
       <c r="I25" s="14"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>89</v>
+      <c r="L25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="P25" s="5"/>
-      <c r="Q25" s="27"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="I26" s="14"/>
+      <c r="J26" s="5"/>
       <c r="L26" s="4" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>89</v>
@@ -1939,9 +1963,10 @@
         <v>44</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q26" s="27"/>
+        <v>104</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
@@ -1964,14 +1989,19 @@
         <v>42</v>
       </c>
       <c r="I27" s="14"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="27"/>
+      <c r="L27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
@@ -1980,7 +2010,7 @@
         <v>109</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>43</v>
@@ -1993,25 +2023,15 @@
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="27"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q28" s="25"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="5"/>
       <c r="D29" s="3" t="s">
@@ -2031,21 +2051,23 @@
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="3" t="s">
-        <v>2</v>
+      <c r="K29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="P29" s="5"/>
-      <c r="Q29" s="27"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
@@ -2069,19 +2091,19 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" s="5"/>
-      <c r="Q30" s="27"/>
+      <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
@@ -2105,7 +2127,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>69</v>
@@ -2114,10 +2136,10 @@
         <v>41</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P31" s="5"/>
-      <c r="Q31" s="27"/>
+      <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
@@ -2138,22 +2160,22 @@
         <v>46</v>
       </c>
       <c r="I32" s="14"/>
-      <c r="J32" s="13"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P32" s="5"/>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="25"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
@@ -2173,23 +2195,23 @@
       <c r="H33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="24"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="13"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="1" t="s">
-        <v>15</v>
+      <c r="L33" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P33" s="5"/>
-      <c r="Q33" s="27"/>
+      <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="15"/>
@@ -2199,104 +2221,119 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="23"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="13"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="P34" s="5"/>
-      <c r="Q34" s="27"/>
+      <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J35" s="13"/>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="25"/>
+    </row>
+    <row r="36" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="13"/>
+      <c r="K36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="27"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J36" s="13"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="P36" s="5"/>
-      <c r="Q36" s="27"/>
+      <c r="Q36" s="25"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J37" s="13"/>
       <c r="K37" s="5"/>
       <c r="L37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J38" s="13"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="25"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J39" s="13"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="27"/>
-    </row>
-    <row r="39" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J39" s="15"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="21"/>
     </row>
-    <row r="40" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J40" s="15"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="22"/>
       <c r="Q40" s="21"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="Q41" s="21"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
@@ -2313,8 +2350,9 @@
       <c r="Q46" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="K3:K5"/>
+    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{CBC0CA8D-9AB4-4764-B24A-CE1B92A5F920}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{0311B0CE-0336-44FB-9CFF-A411810F740F}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{CBC0CA8D-9AB4-4764-B24A-CE1B92A5F920}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{35E2AA06-3EE5-44FA-A607-EAD264CBC62A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="118">
   <si>
     <t>Cliente</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Ruolo</t>
-  </si>
-  <si>
-    <t>Lavora_su</t>
   </si>
   <si>
     <t>Problema</t>
@@ -1093,7 +1090,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1114,7 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1127,7 +1124,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -1143,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -1152,10 +1149,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="13"/>
@@ -1163,7 +1160,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>11</v>
@@ -1172,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="25"/>
@@ -1184,33 +1181,33 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
       <c r="K3" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="25"/>
@@ -1222,31 +1219,31 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
       <c r="K4" s="28"/>
       <c r="L4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="25"/>
@@ -1266,13 +1263,13 @@
         <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="25"/>
@@ -1283,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
@@ -1292,10 +1289,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
@@ -1314,16 +1311,16 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
@@ -1331,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>11</v>
@@ -1340,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="25"/>
@@ -1352,33 +1349,33 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
       <c r="K8" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="25"/>
@@ -1390,16 +1387,16 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
@@ -1408,13 +1405,13 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="25"/>
@@ -1443,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>11</v>
@@ -1452,14 +1449,14 @@
         <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -1473,27 +1470,27 @@
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>11</v>
@@ -1502,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="25"/>
@@ -1514,16 +1511,16 @@
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
@@ -1532,13 +1529,13 @@
         <v>29</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="25"/>
@@ -1550,16 +1547,16 @@
         <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
@@ -1568,13 +1565,13 @@
         <v>30</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="25"/>
@@ -1586,16 +1583,16 @@
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13"/>
@@ -1614,16 +1611,16 @@
         <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
@@ -1631,7 +1628,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>11</v>
@@ -1640,7 +1637,7 @@
         <v>16</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="25"/>
@@ -1657,16 +1654,16 @@
       <c r="J17" s="13"/>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="O17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="25"/>
@@ -1677,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>11</v>
@@ -1686,25 +1683,25 @@
         <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="25"/>
@@ -1716,29 +1713,29 @@
         <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I19" s="23"/>
       <c r="L19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="Q19" s="25"/>
     </row>
@@ -1748,16 +1745,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="5"/>
@@ -1776,23 +1773,23 @@
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" s="23"/>
       <c r="K21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>11</v>
@@ -1801,7 +1798,7 @@
         <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="25"/>
     </row>
@@ -1812,16 +1809,16 @@
         <v>25</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
@@ -1830,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="25"/>
@@ -1848,16 +1845,16 @@
         <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="5"/>
@@ -1866,13 +1863,13 @@
         <v>29</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="25"/>
@@ -1884,16 +1881,16 @@
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="5"/>
@@ -1902,13 +1899,13 @@
         <v>16</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="25"/>
@@ -1917,34 +1914,34 @@
       <c r="B25" s="13"/>
       <c r="C25" s="5"/>
       <c r="D25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="25"/>
@@ -1957,13 +1954,13 @@
         <v>14</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="25"/>
@@ -1971,10 +1968,10 @@
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>11</v>
@@ -1983,23 +1980,23 @@
         <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="14"/>
       <c r="L27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="Q27" s="25"/>
     </row>
@@ -2007,16 +2004,16 @@
       <c r="B28" s="13"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>33</v>
@@ -2038,16 +2035,16 @@
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="5"/>
@@ -2055,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>11</v>
@@ -2064,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="25"/>
@@ -2076,16 +2073,16 @@
         <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="5"/>
@@ -2094,13 +2091,13 @@
         <v>2</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="25"/>
@@ -2112,16 +2109,16 @@
         <v>31</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="5"/>
@@ -2130,13 +2127,13 @@
         <v>3</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="25"/>
@@ -2148,16 +2145,16 @@
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="5"/>
@@ -2166,13 +2163,13 @@
         <v>4</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="25"/>
@@ -2184,16 +2181,16 @@
         <v>32</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="13"/>
@@ -2202,13 +2199,13 @@
         <v>31</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="25"/>
@@ -2228,13 +2225,13 @@
         <v>15</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="25"/>
@@ -2255,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>11</v>
@@ -2264,7 +2261,7 @@
         <v>16</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="25"/>
@@ -2276,13 +2273,13 @@
         <v>6</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="25"/>
@@ -2294,13 +2291,13 @@
         <v>7</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P38" s="18"/>
       <c r="Q38" s="25"/>
@@ -2312,13 +2309,13 @@
         <v>15</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P39" s="23"/>
       <c r="Q39" s="21"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{CBC0CA8D-9AB4-4764-B24A-CE1B92A5F920}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{35E2AA06-3EE5-44FA-A607-EAD264CBC62A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC679CDF-8F75-464D-ACB0-16151165C998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="122">
   <si>
     <t>Cliente</t>
   </si>
@@ -155,6 +155,9 @@
     <t>Ruolo</t>
   </si>
   <si>
+    <t>Lavora_su</t>
+  </si>
+  <si>
     <t>Problema</t>
   </si>
   <si>
@@ -419,6 +422,15 @@
   </si>
   <si>
     <t>Risolto</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>Insieme dei possibili indirizzi email</t>
   </si>
 </sst>
 </file>
@@ -689,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,7 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,34 +1098,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="B1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="74.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="87.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="74.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="87.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1124,7 +1135,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -1132,15 +1143,15 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="24"/>
-    </row>
-    <row r="2" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -1149,10 +1160,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="13"/>
@@ -1160,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>11</v>
@@ -1169,132 +1180,123 @@
         <v>16</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="25"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="27" t="s">
-        <v>75</v>
+      <c r="K3" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P3" s="5"/>
-      <c r="Q3" s="25"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="28"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="28"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="14"/>
       <c r="J6" s="13"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1302,25 +1304,27 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>113</v>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
@@ -1328,7 +1332,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>11</v>
@@ -1337,93 +1341,103 @@
         <v>16</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="5"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="29" t="s">
-        <v>76</v>
+      <c r="K8" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q8" s="24"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="27"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="25"/>
-    </row>
-    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q9" s="24"/>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
       <c r="K10" s="5"/>
@@ -1432,31 +1446,19 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="25"/>
-    </row>
-    <row r="11" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="24"/>
+    </row>
+    <row r="11" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="14"/>
       <c r="J11" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -1464,33 +1466,35 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="25"/>
-    </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="24"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>113</v>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>11</v>
@@ -1499,100 +1503,100 @@
         <v>16</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>91</v>
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P13" s="5"/>
-      <c r="Q13" s="25"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q13" s="24"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="25"/>
-    </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13"/>
@@ -1602,25 +1606,25 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="25"/>
-    </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
@@ -1628,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>11</v>
@@ -1637,126 +1641,127 @@
         <v>16</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P16" s="5"/>
-      <c r="Q16" s="25"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="24"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I17" s="14"/>
       <c r="J17" s="13"/>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" s="5"/>
-      <c r="Q17" s="25"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q17" s="24"/>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="14"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="24"/>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="L19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="25"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1" t="s">
+      <c r="Q19" s="24"/>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="L19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="25"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="I20" s="22"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1764,32 +1769,31 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="25"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="24"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>68</v>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="I21" s="22"/>
       <c r="K21" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>11</v>
@@ -1798,63 +1802,63 @@
         <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q21" s="25"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="24"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="I22" s="22"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P22" s="5"/>
-      <c r="Q22" s="25"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q22" s="24"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="5"/>
@@ -1863,34 +1867,34 @@
         <v>29</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="25"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q23" s="24"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="5"/>
@@ -1899,152 +1903,152 @@
         <v>16</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" s="5"/>
-      <c r="Q24" s="25"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q24" s="24"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="5"/>
       <c r="D25" s="3" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="P25" s="5"/>
-      <c r="Q25" s="25"/>
-    </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I26" s="14"/>
       <c r="J26" s="5"/>
       <c r="L26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P26" s="5"/>
-      <c r="Q26" s="25"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q26" s="24"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
-      <c r="C27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="I27" s="14"/>
       <c r="L27" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q27" s="25"/>
-    </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="Q27" s="24"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="18"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="26"/>
+      <c r="O28" s="25"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="25"/>
-    </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="5"/>
@@ -2052,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>11</v>
@@ -2061,28 +2065,28 @@
         <v>16</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P29" s="5"/>
-      <c r="Q29" s="25"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q29" s="24"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="5"/>
@@ -2091,34 +2095,34 @@
         <v>2</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P30" s="5"/>
-      <c r="Q30" s="25"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q30" s="24"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="5"/>
       <c r="D31" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="5"/>
@@ -2127,34 +2131,34 @@
         <v>3</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P31" s="5"/>
-      <c r="Q31" s="25"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q31" s="24"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="5"/>
       <c r="D32" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="5"/>
@@ -2163,61 +2167,71 @@
         <v>4</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P32" s="5"/>
-      <c r="Q32" s="25"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q32" s="24"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="I33" s="14"/>
       <c r="J33" s="13"/>
       <c r="K33" s="5"/>
       <c r="L33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" s="5"/>
-      <c r="Q33" s="25"/>
-    </row>
-    <row r="34" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="Q33" s="24"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I34" s="22"/>
       <c r="J34" s="13"/>
       <c r="K34" s="5"/>
@@ -2225,34 +2239,42 @@
         <v>15</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P34" s="5"/>
-      <c r="Q34" s="25"/>
-    </row>
-    <row r="35" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q34" s="24"/>
+    </row>
+    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="13"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="18"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="25"/>
-    </row>
-    <row r="36" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q35" s="24"/>
+    </row>
+    <row r="36" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J36" s="13"/>
       <c r="K36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>11</v>
@@ -2261,90 +2283,90 @@
         <v>16</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P36" s="5"/>
-      <c r="Q36" s="25"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q36" s="24"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J37" s="13"/>
       <c r="K37" s="5"/>
       <c r="L37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P37" s="5"/>
-      <c r="Q37" s="25"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q37" s="24"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="L38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="25"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P38" s="17"/>
+      <c r="Q38" s="24"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J39" s="13"/>
       <c r="K39" s="5"/>
       <c r="L39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="40" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="20"/>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J40" s="15"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="21"/>
-    </row>
-    <row r="41" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="Q41" s="21"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="Q42" s="21"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P40" s="21"/>
+      <c r="Q40" s="20"/>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="20"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q42" s="20"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="18"/>
+      <c r="M46" s="17"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="21"/>
+      <c r="Q46" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC679CDF-8F75-464D-ACB0-16151165C998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A4707-6CC9-4A62-BD0D-61AA49C099A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,8 +466,33 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,12 +501,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -505,21 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -529,34 +569,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,8 +583,41 @@
     </border>
     <border>
       <left/>
-      <right style="double">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
       </right>
       <top style="double">
         <color auto="1"/>
@@ -581,31 +626,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="double">
-        <color auto="1"/>
+      <right style="thick">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="double">
-        <color auto="1"/>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,28 +664,50 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color auto="1"/>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -642,144 +715,128 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
       <right/>
-      <top style="double">
-        <color auto="1"/>
+      <top style="thick">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,6 +844,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA8D0BE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1098,56 +1160,57 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="74.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="87.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="74.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="87.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="23"/>
-    </row>
-    <row r="2" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="7" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1156,159 +1219,171 @@
       <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="24"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="26" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="24"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="1" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="24"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="3" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="24"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="24"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="7" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1317,160 +1392,165 @@
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="7" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4" t="s">
+      <c r="P7" s="24"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="28" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="24"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1" t="s">
+      <c r="P8" s="24"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="1" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="24"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3" t="s">
+      <c r="P9" s="24"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="11" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="10" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="24"/>
-    </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="7" t="s">
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1479,238 +1559,245 @@
       <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="7" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="24"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1" t="s">
+      <c r="P12" s="24"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="1" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="24"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3" t="s">
+      <c r="P13" s="24"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="1" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="24"/>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
+      <c r="P14" s="24"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="24"/>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3" t="s">
+      <c r="I15" s="24"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="7" t="s">
+      <c r="I16" s="24"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="24"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3" t="s">
+      <c r="P16" s="24"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="3" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="24"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="1" t="s">
+      <c r="P17" s="24"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="24"/>
-    </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="7" t="s">
+      <c r="P18" s="24"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1719,292 +1806,317 @@
       <c r="E19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="L19" s="1" t="s">
+      <c r="I19" s="24"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="Q19" s="24"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1" t="s">
+      <c r="P19" s="24"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="24"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="D21" s="4" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="K21" s="8" t="s">
+      <c r="I21" s="30"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="24"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3" t="s">
+      <c r="P21" s="24"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="9" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="24"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3" t="s">
+      <c r="P22" s="24"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="1" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="24"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3" t="s">
+      <c r="P23" s="24"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="3" t="s">
+      <c r="I24" s="24"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="24"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3" t="s">
+      <c r="P24" s="24"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="3" t="s">
+      <c r="I25" s="24"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="24"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3" t="s">
+      <c r="P25" s="24"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="5"/>
-      <c r="L26" s="4" t="s">
+      <c r="I26" s="24"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="L27" s="4" t="s">
+      <c r="P26" s="24"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="7" t="s">
+      <c r="P27" s="24"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2013,360 +2125,372 @@
       <c r="E28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="24"/>
-    </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="1" t="s">
+      <c r="I28" s="24"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="7" t="s">
+      <c r="I29" s="24"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="24"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="3" t="s">
+      <c r="P29" s="24"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="3" t="s">
+      <c r="I30" s="24"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="24"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3" t="s">
+      <c r="P30" s="24"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="3" t="s">
+      <c r="I31" s="24"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="24"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3" t="s">
+      <c r="P31" s="24"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="3" t="s">
+      <c r="I32" s="24"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="24"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3" t="s">
+      <c r="P32" s="24"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="3" t="s">
+      <c r="I33" s="24"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="24"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="3" t="s">
+      <c r="P33" s="24"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="1" t="s">
+      <c r="I34" s="30"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="24"/>
-    </row>
-    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="24"/>
-    </row>
-    <row r="36" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J36" s="13"/>
-      <c r="K36" s="7" t="s">
+      <c r="P34" s="24"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="17"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="24"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="13"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="3" t="s">
+      <c r="P36" s="24"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I37" s="17"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="24"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="13"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="3" t="s">
+      <c r="P37" s="24"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I38" s="17"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="24"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J39" s="13"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="1" t="s">
+      <c r="P38" s="29"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I39" s="17"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="20"/>
-    </row>
-    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J40" s="15"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="20"/>
-    </row>
-    <row r="41" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="Q41" s="20"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="Q42" s="20"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="20"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="17"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A4707-6CC9-4A62-BD0D-61AA49C099A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F411189-B082-42CA-B965-31BBB8C1571B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15360" windowHeight="10920" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -770,6 +770,65 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,65 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,8 +1162,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,36 +1180,36 @@
     <col min="11" max="11" width="74.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="87.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="100.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="52.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="18" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="22"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1228,8 +1228,8 @@
       <c r="H2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="15"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1245,13 +1245,13 @@
       <c r="O2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="24"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1267,9 +1267,9 @@
       <c r="H3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="12" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="33" t="s">
         <v>76</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -1284,13 +1284,13 @@
       <c r="O3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="24"/>
+      <c r="P3" s="21"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1306,9 +1306,9 @@
       <c r="H4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="8" t="s">
         <v>102</v>
       </c>
@@ -1321,13 +1321,13 @@
       <c r="O4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="24"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
         <v>119</v>
       </c>
@@ -1343,9 +1343,9 @@
       <c r="H5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1358,31 +1358,31 @@
       <c r="O5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="24"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="24"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="21"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1401,8 +1401,8 @@
       <c r="H7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1418,13 +1418,13 @@
       <c r="O7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="24"/>
+      <c r="P7" s="21"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1440,9 +1440,9 @@
       <c r="H8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="14" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="35" t="s">
         <v>77</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -1457,13 +1457,13 @@
       <c r="O8" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="24"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
@@ -1479,9 +1479,9 @@
       <c r="H9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="12"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1494,13 +1494,13 @@
       <c r="O9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="24"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
@@ -1516,40 +1516,40 @@
       <c r="H10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="25"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="18" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="28"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="25"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1568,8 +1568,8 @@
       <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
@@ -1585,13 +1585,13 @@
       <c r="O12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="24"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="8" t="s">
         <v>101</v>
       </c>
@@ -1607,9 +1607,9 @@
       <c r="H13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="27"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="8" t="s">
         <v>29</v>
       </c>
@@ -1622,13 +1622,13 @@
       <c r="O13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P13" s="24"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1644,9 +1644,9 @@
       <c r="H14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="27"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1659,13 +1659,13 @@
       <c r="O14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="24"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1681,20 +1681,20 @@
       <c r="H15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="24"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
@@ -1710,8 +1710,8 @@
       <c r="H16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1727,13 +1727,13 @@
       <c r="O16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="24"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1749,9 +1749,9 @@
       <c r="H17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="10" t="s">
         <v>83</v>
       </c>
@@ -1764,21 +1764,21 @@
       <c r="O17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="24"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="8" t="s">
         <v>102</v>
       </c>
@@ -1791,12 +1791,12 @@
       <c r="O18" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P18" s="24"/>
+      <c r="P18" s="21"/>
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1815,9 +1815,9 @@
       <c r="H19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="8" t="s">
         <v>103</v>
       </c>
@@ -1830,13 +1830,13 @@
       <c r="O19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="24"/>
+      <c r="P19" s="21"/>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1852,20 +1852,20 @@
       <c r="H20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="24"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="21"/>
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
@@ -1881,8 +1881,8 @@
       <c r="H21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="5" t="s">
         <v>34</v>
       </c>
@@ -1898,13 +1898,13 @@
       <c r="O21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="24"/>
+      <c r="P21" s="21"/>
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="10" t="s">
         <v>11</v>
       </c>
@@ -1920,9 +1920,9 @@
       <c r="H22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="8" t="s">
         <v>10</v>
       </c>
@@ -1935,13 +1935,13 @@
       <c r="O22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="24"/>
+      <c r="P22" s="21"/>
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1957,9 +1957,9 @@
       <c r="H23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="8" t="s">
         <v>29</v>
       </c>
@@ -1972,13 +1972,13 @@
       <c r="O23" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P23" s="24"/>
+      <c r="P23" s="21"/>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1994,9 +1994,9 @@
       <c r="H24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="10" t="s">
         <v>16</v>
       </c>
@@ -2009,13 +2009,13 @@
       <c r="O24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="24"/>
+      <c r="P24" s="21"/>
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="10" t="s">
         <v>27</v>
       </c>
@@ -2031,9 +2031,9 @@
       <c r="H25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="10" t="s">
         <v>118</v>
       </c>
@@ -2046,13 +2046,13 @@
       <c r="O25" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="24"/>
+      <c r="P25" s="21"/>
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
         <v>97</v>
       </c>
@@ -2068,9 +2068,9 @@
       <c r="H26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="9" t="s">
         <v>14</v>
       </c>
@@ -2083,21 +2083,21 @@
       <c r="O26" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P26" s="24"/>
+      <c r="P26" s="21"/>
       <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="9" t="s">
         <v>112</v>
       </c>
@@ -2110,12 +2110,12 @@
       <c r="O27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="P27" s="24"/>
+      <c r="P27" s="21"/>
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="5" t="s">
         <v>108</v>
       </c>
@@ -2134,20 +2134,20 @@
       <c r="H28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="24"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
         <v>109</v>
       </c>
@@ -2163,8 +2163,8 @@
       <c r="H29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="15"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="5" t="s">
         <v>1</v>
       </c>
@@ -2180,13 +2180,13 @@
       <c r="O29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="24"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="10" t="s">
         <v>3</v>
       </c>
@@ -2202,28 +2202,28 @@
       <c r="H30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
       <c r="L30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P30" s="24"/>
+      <c r="P30" s="21"/>
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="10" t="s">
         <v>4</v>
       </c>
@@ -2239,9 +2239,9 @@
       <c r="H31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
       <c r="L31" s="10" t="s">
         <v>3</v>
       </c>
@@ -2254,13 +2254,13 @@
       <c r="O31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P31" s="24"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="10" t="s">
         <v>31</v>
       </c>
@@ -2276,9 +2276,9 @@
       <c r="H32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="10" t="s">
         <v>4</v>
       </c>
@@ -2291,13 +2291,13 @@
       <c r="O32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="24"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="10" t="s">
         <v>2</v>
       </c>
@@ -2313,9 +2313,9 @@
       <c r="H33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
       <c r="L33" s="10" t="s">
         <v>31</v>
       </c>
@@ -2328,13 +2328,13 @@
       <c r="O33" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P33" s="24"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="10" t="s">
         <v>32</v>
       </c>
@@ -2350,9 +2350,9 @@
       <c r="H34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="8" t="s">
         <v>15</v>
       </c>
@@ -2365,31 +2365,31 @@
       <c r="O34" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P34" s="24"/>
+      <c r="P34" s="21"/>
       <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="24"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="21"/>
       <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I36" s="17"/>
-      <c r="J36" s="15"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="12"/>
       <c r="K36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2405,13 +2405,13 @@
       <c r="O36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P36" s="24"/>
+      <c r="P36" s="21"/>
       <c r="Q36" s="4"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I37" s="17"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="10" t="s">
         <v>6</v>
       </c>
@@ -2424,13 +2424,13 @@
       <c r="O37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="P37" s="24"/>
+      <c r="P37" s="21"/>
       <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I38" s="17"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="10" t="s">
         <v>7</v>
       </c>
@@ -2443,13 +2443,13 @@
       <c r="O38" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P38" s="29"/>
+      <c r="P38" s="26"/>
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I39" s="17"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
       <c r="L39" s="8" t="s">
         <v>15</v>
       </c>
@@ -2462,18 +2462,18 @@
       <c r="O39" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P39" s="30"/>
+      <c r="P39" s="27"/>
       <c r="Q39" s="4"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I40" s="17"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="25"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="22"/>
       <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F411189-B082-42CA-B965-31BBB8C1571B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E538290-FC25-4BC3-8CB3-A1C2431A9A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15360" windowHeight="10920" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="121">
   <si>
     <t>Cliente</t>
   </si>
@@ -155,9 +157,6 @@
     <t>Ruolo</t>
   </si>
   <si>
-    <t>Lavora_su</t>
-  </si>
-  <si>
     <t>Problema</t>
   </si>
   <si>
@@ -177,9 +176,6 @@
   </si>
   <si>
     <t>ℕ</t>
-  </si>
-  <si>
-    <t>Omesso</t>
   </si>
   <si>
     <t>Partecipazioni esterne</t>
@@ -431,6 +427,9 @@
   </si>
   <si>
     <t>Insieme dei possibili indirizzi email</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1161,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="N22" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1186,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -1197,7 +1196,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="25"/>
       <c r="J1" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
@@ -1214,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -1223,10 +1222,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="12"/>
@@ -1234,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>11</v>
@@ -1243,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="4"/>
@@ -1256,33 +1255,33 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="12"/>
       <c r="K3" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="4"/>
@@ -1295,31 +1294,31 @@
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="12"/>
       <c r="K4" s="34"/>
       <c r="L4" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="4"/>
@@ -1329,19 +1328,19 @@
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="12"/>
@@ -1350,13 +1349,13 @@
         <v>21</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="4"/>
@@ -1387,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>11</v>
@@ -1396,10 +1395,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="12"/>
@@ -1407,7 +1406,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>11</v>
@@ -1416,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="4"/>
@@ -1429,33 +1428,33 @@
         <v>14</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="12"/>
       <c r="K8" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="4"/>
@@ -1468,16 +1467,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="12"/>
@@ -1486,13 +1485,13 @@
         <v>15</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="4"/>
@@ -1505,16 +1504,16 @@
         <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="16"/>
@@ -1537,7 +1536,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -1554,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>11</v>
@@ -1563,18 +1562,18 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>11</v>
@@ -1583,7 +1582,7 @@
         <v>16</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="4"/>
@@ -1593,19 +1592,19 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="12"/>
@@ -1614,13 +1613,13 @@
         <v>29</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="4"/>
@@ -1633,16 +1632,16 @@
         <v>16</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="12"/>
@@ -1651,13 +1650,13 @@
         <v>30</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="4"/>
@@ -1670,16 +1669,16 @@
         <v>17</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="12"/>
@@ -1699,16 +1698,16 @@
         <v>18</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="12"/>
@@ -1716,7 +1715,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>11</v>
@@ -1725,7 +1724,7 @@
         <v>16</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="4"/>
@@ -1738,31 +1737,31 @@
         <v>19</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="4"/>
@@ -1780,16 +1779,16 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="4"/>
@@ -1801,7 +1800,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>11</v>
@@ -1810,25 +1809,25 @@
         <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="4"/>
@@ -1841,16 +1840,16 @@
         <v>24</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="12"/>
@@ -1870,24 +1869,24 @@
         <v>4</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="23"/>
       <c r="K21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>11</v>
@@ -1896,7 +1895,7 @@
         <v>16</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="4"/>
@@ -1909,16 +1908,16 @@
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="12"/>
@@ -1927,13 +1926,13 @@
         <v>10</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="4"/>
@@ -1946,16 +1945,16 @@
         <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="12"/>
@@ -1964,13 +1963,13 @@
         <v>29</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="4"/>
@@ -1983,16 +1982,16 @@
         <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="12"/>
@@ -2001,13 +2000,13 @@
         <v>16</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="4"/>
@@ -2020,31 +2019,31 @@
         <v>27</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="4"/>
@@ -2054,19 +2053,19 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="H26" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="12"/>
@@ -2075,13 +2074,13 @@
         <v>14</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="4"/>
@@ -2099,16 +2098,16 @@
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P27" s="21"/>
       <c r="Q27" s="4"/>
@@ -2117,10 +2116,10 @@
       <c r="A28" s="30"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>11</v>
@@ -2129,10 +2128,10 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="12"/>
@@ -2149,16 +2148,16 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>33</v>
@@ -2169,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>11</v>
@@ -2178,7 +2177,7 @@
         <v>16</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="4"/>
@@ -2191,16 +2190,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="12"/>
@@ -2209,13 +2208,13 @@
         <v>2</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="4"/>
@@ -2228,16 +2227,16 @@
         <v>4</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="12"/>
@@ -2246,13 +2245,13 @@
         <v>3</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="4"/>
@@ -2265,16 +2264,16 @@
         <v>31</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="12"/>
@@ -2283,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="4"/>
@@ -2302,16 +2301,16 @@
         <v>2</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="12"/>
@@ -2320,13 +2319,13 @@
         <v>31</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P33" s="21"/>
       <c r="Q33" s="4"/>
@@ -2339,16 +2338,16 @@
         <v>32</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="12"/>
@@ -2357,13 +2356,13 @@
         <v>15</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="4"/>
@@ -2394,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>11</v>
@@ -2403,7 +2402,7 @@
         <v>16</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P36" s="21"/>
       <c r="Q36" s="4"/>
@@ -2416,13 +2415,13 @@
         <v>6</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P37" s="21"/>
       <c r="Q37" s="4"/>
@@ -2435,13 +2434,13 @@
         <v>7</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P38" s="26"/>
       <c r="Q38" s="4"/>
@@ -2454,13 +2453,13 @@
         <v>15</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P39" s="27"/>
       <c r="Q39" s="4"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E538290-FC25-4BC3-8CB3-A1C2431A9A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489B39A6-028D-43F0-B26D-4439DB4CE177}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -223,9 +221,6 @@
     <t>Descrizione delle caratterizzazioni del software</t>
   </si>
   <si>
-    <t>Insime delle possibili caratteristiche dei software</t>
-  </si>
-  <si>
     <t>Tipo di licenza che utilizza il software</t>
   </si>
   <si>
@@ -430,6 +425,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Insieme delle possibili caratteristiche dei software</t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N22" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1253,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
@@ -1269,19 +1267,19 @@
       <c r="I3" s="21"/>
       <c r="J3" s="12"/>
       <c r="K3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="4"/>
@@ -1294,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>44</v>
@@ -1309,16 +1307,16 @@
       <c r="J4" s="12"/>
       <c r="K4" s="34"/>
       <c r="L4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="4"/>
@@ -1328,16 +1326,16 @@
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>44</v>
@@ -1349,10 +1347,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>39</v>
@@ -1428,13 +1426,13 @@
         <v>14</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>44</v>
@@ -1442,19 +1440,19 @@
       <c r="I8" s="21"/>
       <c r="J8" s="12"/>
       <c r="K8" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="4"/>
@@ -1467,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>41</v>
@@ -1485,13 +1483,13 @@
         <v>15</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="4"/>
@@ -1504,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>46</v>
@@ -1592,10 +1590,10 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>41</v>
@@ -1613,13 +1611,13 @@
         <v>29</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="4"/>
@@ -1632,7 +1630,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>48</v>
@@ -1650,13 +1648,13 @@
         <v>30</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="4"/>
@@ -1669,10 +1667,10 @@
         <v>17</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>39</v>
@@ -1698,10 +1696,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>51</v>
@@ -1737,7 +1735,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>49</v>
@@ -1752,13 +1750,13 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>51</v>
@@ -1779,16 +1777,16 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="4"/>
@@ -1818,16 +1816,16 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="4"/>
@@ -1840,7 +1838,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>41</v>
@@ -1849,7 +1847,7 @@
         <v>39</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="12"/>
@@ -1869,13 +1867,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>44</v>
@@ -1908,13 +1906,13 @@
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>44</v>
@@ -1926,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>39</v>
@@ -1945,13 +1943,13 @@
         <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>44</v>
@@ -1963,13 +1961,13 @@
         <v>29</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="4"/>
@@ -1982,13 +1980,13 @@
         <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>44</v>
@@ -2000,10 +1998,10 @@
         <v>16</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>50</v>
@@ -2019,13 +2017,13 @@
         <v>27</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>44</v>
@@ -2034,16 +2032,16 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="O25" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="4"/>
@@ -2053,16 +2051,16 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>44</v>
@@ -2074,13 +2072,13 @@
         <v>14</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="4"/>
@@ -2098,16 +2096,16 @@
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>42</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P27" s="21"/>
       <c r="Q27" s="4"/>
@@ -2116,7 +2114,7 @@
       <c r="A28" s="30"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>34</v>
@@ -2148,10 +2146,10 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>41</v>
@@ -2190,13 +2188,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>44</v>
@@ -2208,13 +2206,13 @@
         <v>2</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="4"/>
@@ -2227,13 +2225,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>44</v>
@@ -2245,13 +2243,13 @@
         <v>3</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="4"/>
@@ -2264,10 +2262,10 @@
         <v>31</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>51</v>
@@ -2282,13 +2280,13 @@
         <v>4</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="4"/>
@@ -2301,13 +2299,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>44</v>
@@ -2319,10 +2317,10 @@
         <v>31</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>51</v>
@@ -2338,13 +2336,13 @@
         <v>32</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>44</v>
@@ -2356,13 +2354,13 @@
         <v>15</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="4"/>
@@ -2415,13 +2413,13 @@
         <v>6</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P37" s="21"/>
       <c r="Q37" s="4"/>
@@ -2434,13 +2432,13 @@
         <v>7</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P38" s="26"/>
       <c r="Q38" s="4"/>
@@ -2453,13 +2451,13 @@
         <v>15</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P39" s="27"/>
       <c r="Q39" s="4"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489B39A6-028D-43F0-B26D-4439DB4CE177}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC18906-D37D-4B55-8DCA-BD27D0B8CB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="117">
   <si>
     <t>Cliente</t>
   </si>
@@ -152,9 +154,6 @@
     <t>Data_nascita</t>
   </si>
   <si>
-    <t>Ruolo</t>
-  </si>
-  <si>
     <t>Problema</t>
   </si>
   <si>
@@ -221,15 +220,15 @@
     <t>Descrizione delle caratterizzazioni del software</t>
   </si>
   <si>
+    <t>Insime delle possibili caratteristiche dei software</t>
+  </si>
+  <si>
     <t>Tipo di licenza che utilizza il software</t>
   </si>
   <si>
     <t>Insieme delle licenze software{Adware, Demo, Open Source, etc…</t>
   </si>
   <si>
-    <t>Insieme dei ruoli</t>
-  </si>
-  <si>
     <t>Insieme dei possibili cognomi</t>
   </si>
   <si>
@@ -317,9 +316,6 @@
     <t>int(5) unsigned</t>
   </si>
   <si>
-    <t>varchar(13)</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -375,9 +371,6 @@
   </si>
   <si>
     <t>CodiceO</t>
-  </si>
-  <si>
-    <t>{Tecnico,Commerciale}</t>
   </si>
   <si>
     <t>Acquista, Sistema_Operativo,Problema</t>
@@ -425,9 +418,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Insieme delle possibili caratteristiche dei software</t>
   </si>
 </sst>
 </file>
@@ -734,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,6 +824,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1177,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -1194,7 +1187,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="25"/>
       <c r="J1" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
@@ -1211,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -1220,10 +1213,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="12"/>
@@ -1231,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>11</v>
@@ -1240,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="4"/>
@@ -1253,33 +1246,33 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="12"/>
       <c r="K3" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="4"/>
@@ -1292,31 +1285,31 @@
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="12"/>
       <c r="K4" s="34"/>
       <c r="L4" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="4"/>
@@ -1326,19 +1319,19 @@
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>119</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="12"/>
@@ -1347,13 +1340,13 @@
         <v>21</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="4"/>
@@ -1384,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>11</v>
@@ -1393,10 +1386,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="12"/>
@@ -1404,7 +1397,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>11</v>
@@ -1413,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="4"/>
@@ -1426,33 +1419,33 @@
         <v>14</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="12"/>
       <c r="K8" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="4"/>
@@ -1465,16 +1458,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="12"/>
@@ -1483,13 +1476,13 @@
         <v>15</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="4"/>
@@ -1502,16 +1495,16 @@
         <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="16"/>
@@ -1534,7 +1527,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -1551,7 +1544,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>11</v>
@@ -1560,18 +1553,18 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>11</v>
@@ -1580,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="4"/>
@@ -1590,19 +1583,19 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="12"/>
@@ -1611,13 +1604,13 @@
         <v>29</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="4"/>
@@ -1630,16 +1623,16 @@
         <v>16</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="12"/>
@@ -1648,13 +1641,13 @@
         <v>30</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="4"/>
@@ -1667,16 +1660,16 @@
         <v>17</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="12"/>
@@ -1696,16 +1689,16 @@
         <v>18</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="12"/>
@@ -1713,7 +1706,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>11</v>
@@ -1722,7 +1715,7 @@
         <v>16</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="4"/>
@@ -1735,31 +1728,31 @@
         <v>19</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="O17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="4"/>
@@ -1777,16 +1770,16 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="4"/>
@@ -1798,7 +1791,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>11</v>
@@ -1807,25 +1800,25 @@
         <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="4"/>
@@ -1838,16 +1831,16 @@
         <v>24</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="12"/>
@@ -1867,24 +1860,24 @@
         <v>4</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="23"/>
       <c r="K21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>11</v>
@@ -1893,7 +1886,7 @@
         <v>16</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="4"/>
@@ -1906,16 +1899,16 @@
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="12"/>
@@ -1924,13 +1917,13 @@
         <v>10</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="4"/>
@@ -1943,16 +1936,16 @@
         <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="12"/>
@@ -1961,13 +1954,13 @@
         <v>29</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="4"/>
@@ -1980,16 +1973,16 @@
         <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="12"/>
@@ -1998,13 +1991,13 @@
         <v>16</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="4"/>
@@ -2017,7 +2010,7 @@
         <v>27</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>55</v>
@@ -2026,22 +2019,22 @@
         <v>56</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="4"/>
@@ -2051,19 +2044,19 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="H26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="12"/>
@@ -2072,13 +2065,13 @@
         <v>14</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="4"/>
@@ -2096,16 +2089,16 @@
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P27" s="21"/>
       <c r="Q27" s="4"/>
@@ -2114,10 +2107,10 @@
       <c r="A28" s="30"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>11</v>
@@ -2126,10 +2119,10 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="12"/>
@@ -2146,19 +2139,19 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="12"/>
@@ -2166,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>11</v>
@@ -2175,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="4"/>
@@ -2188,16 +2181,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="12"/>
@@ -2206,13 +2199,13 @@
         <v>2</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="4"/>
@@ -2225,16 +2218,16 @@
         <v>4</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="12"/>
@@ -2243,13 +2236,13 @@
         <v>3</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="4"/>
@@ -2262,16 +2255,16 @@
         <v>31</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="12"/>
@@ -2280,13 +2273,13 @@
         <v>4</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="4"/>
@@ -2299,16 +2292,16 @@
         <v>2</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="12"/>
@@ -2317,64 +2310,47 @@
         <v>31</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P33" s="21"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="27"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="22"/>
+    <row r="35" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
@@ -2384,14 +2360,14 @@
       <c r="P35" s="21"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I36" s="14"/>
       <c r="J36" s="12"/>
       <c r="K36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>11</v>
@@ -2400,7 +2376,7 @@
         <v>16</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P36" s="21"/>
       <c r="Q36" s="4"/>
@@ -2413,13 +2389,13 @@
         <v>6</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P37" s="21"/>
       <c r="Q37" s="4"/>
@@ -2432,13 +2408,13 @@
         <v>7</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P38" s="26"/>
       <c r="Q38" s="4"/>
@@ -2451,13 +2427,13 @@
         <v>15</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P39" s="27"/>
       <c r="Q39" s="4"/>

--- a/Tabelle.xlsx
+++ b/Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC18906-D37D-4B55-8DCA-BD27D0B8CB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB243577-A217-47B2-B9AF-8E311801DBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C5FBCAD4-7039-4F5F-98BF-7AB6C7DCABB2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="126">
   <si>
     <t>Cliente</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Identificativo dell'azienda</t>
   </si>
   <si>
-    <t>int(5) unsigned</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>Insieme dei CodiciO appartenenti a Operatore</t>
   </si>
   <si>
-    <t>int unsigned</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -418,6 +412,39 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Dimensione</t>
+  </si>
+  <si>
+    <t>Vincoli</t>
+  </si>
+  <si>
+    <t>Numerico</t>
+  </si>
+  <si>
+    <t>Testo</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Unsigned</t>
+  </si>
+  <si>
+    <t>Not Null</t>
+  </si>
+  <si>
+    <t>Default false</t>
+  </si>
+  <si>
+    <t>Unsigned, Auto_increment</t>
   </si>
 </sst>
 </file>
@@ -816,6 +843,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -824,9 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,10 +1177,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="N19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,20 +1189,24 @@
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="74.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="100.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="97.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="74.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="100.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
@@ -1183,21 +1214,25 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="15" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="12"/>
       <c r="C2" s="5" t="s">
@@ -1209,36 +1244,48 @@
       <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T2" s="21"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1246,38 +1293,50 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="21"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1285,73 +1344,97 @@
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="G4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" s="10" t="s">
+      <c r="K4" s="21"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="21"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="S5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T5" s="21"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="12"/>
       <c r="C6" s="23"/>
@@ -1360,17 +1443,21 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="12"/>
       <c r="C7" s="5" t="s">
@@ -1382,112 +1469,148 @@
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="P7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="S7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="21"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N8" s="10" t="s">
+      <c r="O8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="21"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1495,28 +1618,36 @@
         <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1526,18 +1657,22 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
@@ -1549,73 +1684,97 @@
       <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="21"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="P12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="S12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T12" s="21"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="8" t="s">
+      <c r="K13" s="21"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1623,141 +1782,185 @@
         <v>16</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="8" t="s">
+      <c r="K14" s="21"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="O14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="Q14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="S14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T14" s="21"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="G15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="7" t="s">
+      <c r="R16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="S16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16" s="21"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="10" t="s">
+      <c r="K17" s="21"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="O17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="S17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T17" s="21"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1766,25 +1969,33 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="K18" s="21"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="21"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
@@ -1796,34 +2007,46 @@
       <c r="E19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="8" t="s">
+      <c r="K19" s="21"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T19" s="21"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1831,67 +2054,87 @@
         <v>24</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="J20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="27"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="12"/>
       <c r="C21" s="23"/>
       <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="27"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="P21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="S21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T21" s="21"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1899,73 +2142,97 @@
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="8" t="s">
+      <c r="K22" s="27"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="10" t="s">
+      <c r="O22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="S22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T22" s="21"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>86</v>
+      <c r="E23" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="H23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="8" t="s">
+      <c r="K23" s="21"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="10" t="s">
+      <c r="O23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23" s="21"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1973,36 +2240,48 @@
         <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="I24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="J24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="10" t="s">
+      <c r="K24" s="21"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N24" s="10" t="s">
+      <c r="O24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="S24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T24" s="21"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2010,73 +2289,97 @@
         <v>27</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="O25" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O25" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="T25" s="21"/>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="G26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="21"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26" s="10" t="s">
+      <c r="O26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T26" s="21"/>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="12"/>
       <c r="C27" s="23"/>
@@ -2085,29 +2388,37 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="21"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="9" t="s">
+      <c r="K27" s="21"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T27" s="21"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>33</v>
@@ -2115,65 +2426,85 @@
       <c r="E28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="28"/>
+      <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="J29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="21"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="N29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="O29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="P29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="S29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T29" s="21"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2181,36 +2512,48 @@
         <v>3</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="G30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="J30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="10" t="s">
+      <c r="K30" s="21"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="O30" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N30" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O30" s="10" t="s">
+      <c r="Q30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T30" s="21"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2218,73 +2561,97 @@
         <v>4</v>
       </c>
       <c r="E31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="G31" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="10" t="s">
+      <c r="K31" s="21"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="O31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O31" s="10" t="s">
+      <c r="Q31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T31" s="21"/>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="G32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="J32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="10" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="O32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O32" s="10" t="s">
+      <c r="Q32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T32" s="21"/>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2292,36 +2659,48 @@
         <v>2</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="G33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="J33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="10" t="s">
+      <c r="K33" s="21"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="O33" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O33" s="10" t="s">
+      <c r="Q33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="21"/>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
@@ -2330,145 +2709,183 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="8" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N34" s="10" t="s">
+      <c r="O34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T34" s="21"/>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="28"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I36" s="14"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="5" t="s">
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K36" s="14"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="N36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="O36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="P36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="S36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I37" s="14"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="10" t="s">
+      <c r="T36" s="21"/>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K37" s="14"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="O37" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N37" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O37" s="10" t="s">
+      <c r="Q37" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I38" s="14"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="10" t="s">
+      <c r="T37" s="21"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K38" s="14"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="9" t="s">
+      <c r="O38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P38" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="N38" s="10" t="s">
+      <c r="Q38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R38" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O38" s="10" t="s">
+      <c r="S38" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I39" s="14"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="8" t="s">
+      <c r="T38" s="26"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K39" s="14"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N39" s="10" t="s">
+      <c r="O39" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R39" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O39" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I40" s="14"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="S39" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T39" s="27"/>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="14"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q42" s="4"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U42" s="4"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L46" s="2"/>
-      <c r="M46" s="3"/>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="4"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M8:M9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>
